--- a/PROJECT_CODE/갬성게임즈 테이블 정의 마무리.xlsx
+++ b/PROJECT_CODE/갬성게임즈 테이블 정의 마무리.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PKNU\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\GitHub\Javastudyclass\PROJECT_CODE\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA5FCD2E-A5C1-4504-93FC-6248CA9F5432}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18630" windowHeight="9990"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="260">
   <si>
     <t>필드명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -873,10 +874,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>예약구매 ID 'S001'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>게임 이름 'G001'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -970,13 +967,21 @@
   </si>
   <si>
     <t>포인트 표시유무(Y면 표시 N이면 표시안함)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예약구매 ID 'A001'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1515,28 +1520,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B73" workbookViewId="0">
-      <selection activeCell="F94" sqref="F94"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="F73" sqref="F73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="26.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="87.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.09765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.69921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="87.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
@@ -1556,7 +1561,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -1574,7 +1579,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -1590,7 +1595,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -1606,7 +1611,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
@@ -1622,7 +1627,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
@@ -1638,7 +1643,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
@@ -1654,7 +1659,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
@@ -1670,7 +1675,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -1688,12 +1693,12 @@
         <v>132</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13" s="9" t="s">
         <v>0</v>
       </c>
@@ -1713,7 +1718,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14" s="3" t="s">
         <v>5</v>
       </c>
@@ -1731,7 +1736,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15" s="3" t="s">
         <v>6</v>
       </c>
@@ -1747,7 +1752,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A16" s="3" t="s">
         <v>7</v>
       </c>
@@ -1763,7 +1768,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A17" s="3" t="s">
         <v>11</v>
       </c>
@@ -1779,7 +1784,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A18" s="3" t="s">
         <v>120</v>
       </c>
@@ -1795,7 +1800,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A19" s="3" t="s">
         <v>121</v>
       </c>
@@ -1811,7 +1816,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A20" s="3" t="s">
         <v>122</v>
       </c>
@@ -1829,7 +1834,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A21" s="3" t="s">
         <v>123</v>
       </c>
@@ -1845,7 +1850,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A22" s="3" t="s">
         <v>9</v>
       </c>
@@ -1861,7 +1866,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A23" s="5" t="s">
         <v>124</v>
       </c>
@@ -1879,12 +1884,12 @@
         <v>157</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A26" s="9" t="s">
         <v>0</v>
       </c>
@@ -1904,7 +1909,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A27" s="3" t="s">
         <v>134</v>
       </c>
@@ -1922,7 +1927,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A28" s="3" t="s">
         <v>135</v>
       </c>
@@ -1938,7 +1943,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A29" s="3" t="s">
         <v>136</v>
       </c>
@@ -1954,7 +1959,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A30" s="3" t="s">
         <v>137</v>
       </c>
@@ -1970,7 +1975,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A31" s="3" t="s">
         <v>138</v>
       </c>
@@ -1986,7 +1991,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A32" s="3" t="s">
         <v>139</v>
       </c>
@@ -2002,7 +2007,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A33" s="3" t="s">
         <v>140</v>
       </c>
@@ -2018,7 +2023,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A34" s="3" t="s">
         <v>141</v>
       </c>
@@ -2034,7 +2039,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A35" s="5" t="s">
         <v>142</v>
       </c>
@@ -2050,12 +2055,12 @@
         <v>158</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A38" s="9" t="s">
         <v>0</v>
       </c>
@@ -2075,7 +2080,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A39" s="3" t="s">
         <v>161</v>
       </c>
@@ -2093,7 +2098,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A40" s="3" t="s">
         <v>162</v>
       </c>
@@ -2109,7 +2114,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A41" s="3" t="s">
         <v>163</v>
       </c>
@@ -2125,7 +2130,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A42" s="3" t="s">
         <v>164</v>
       </c>
@@ -2141,7 +2146,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A43" s="3" t="s">
         <v>165</v>
       </c>
@@ -2155,7 +2160,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A44" s="3" t="s">
         <v>166</v>
       </c>
@@ -2171,7 +2176,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A45" s="3" t="s">
         <v>167</v>
       </c>
@@ -2185,7 +2190,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A46" s="5" t="s">
         <v>168</v>
       </c>
@@ -2199,12 +2204,12 @@
         <v>179</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A49" s="9" t="s">
         <v>0</v>
       </c>
@@ -2224,7 +2229,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A50" s="3" t="s">
         <v>181</v>
       </c>
@@ -2242,7 +2247,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A51" s="3" t="s">
         <v>182</v>
       </c>
@@ -2258,7 +2263,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A52" s="3" t="s">
         <v>166</v>
       </c>
@@ -2274,7 +2279,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A53" s="3" t="s">
         <v>183</v>
       </c>
@@ -2290,7 +2295,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A54" s="3" t="s">
         <v>184</v>
       </c>
@@ -2306,7 +2311,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A55" s="3" t="s">
         <v>185</v>
       </c>
@@ -2322,7 +2327,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A56" s="5" t="s">
         <v>186</v>
       </c>
@@ -2336,12 +2341,12 @@
         <v>215</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A59" s="9" t="s">
         <v>0</v>
       </c>
@@ -2361,7 +2366,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A60" s="3" t="s">
         <v>198</v>
       </c>
@@ -2379,7 +2384,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A61" s="3" t="s">
         <v>199</v>
       </c>
@@ -2392,10 +2397,10 @@
       </c>
       <c r="E61" s="2"/>
       <c r="F61" s="4" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A62" s="3" t="s">
         <v>134</v>
       </c>
@@ -2408,10 +2413,10 @@
       </c>
       <c r="E62" s="2"/>
       <c r="F62" s="4" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A63" s="3" t="s">
         <v>200</v>
       </c>
@@ -2424,10 +2429,10 @@
       </c>
       <c r="E63" s="2"/>
       <c r="F63" s="4" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A64" s="3" t="s">
         <v>201</v>
       </c>
@@ -2443,7 +2448,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A65" s="3" t="s">
         <v>202</v>
       </c>
@@ -2461,7 +2466,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A66" s="3" t="s">
         <v>220</v>
       </c>
@@ -2475,7 +2480,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A67" s="3" t="s">
         <v>203</v>
       </c>
@@ -2491,7 +2496,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A68" s="3" t="s">
         <v>204</v>
       </c>
@@ -2509,7 +2514,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A69" s="5" t="s">
         <v>205</v>
       </c>
@@ -2525,12 +2530,12 @@
         <v>226</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A72" s="9" t="s">
         <v>0</v>
       </c>
@@ -2550,9 +2555,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A73" s="3" t="s">
-        <v>198</v>
+        <v>258</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>13</v>
@@ -2565,10 +2570,10 @@
         <v>21</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A74" s="3" t="s">
         <v>199</v>
       </c>
@@ -2581,10 +2586,10 @@
       </c>
       <c r="E74" s="2"/>
       <c r="F74" s="4" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A75" s="3" t="s">
         <v>134</v>
       </c>
@@ -2597,10 +2602,10 @@
       </c>
       <c r="E75" s="2"/>
       <c r="F75" s="4" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A76" s="3" t="s">
         <v>200</v>
       </c>
@@ -2613,10 +2618,10 @@
       </c>
       <c r="E76" s="2"/>
       <c r="F76" s="4" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A77" s="3" t="s">
         <v>201</v>
       </c>
@@ -2632,7 +2637,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A78" s="3" t="s">
         <v>228</v>
       </c>
@@ -2650,7 +2655,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A79" s="3" t="s">
         <v>230</v>
       </c>
@@ -2666,7 +2671,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A80" s="3" t="s">
         <v>229</v>
       </c>
@@ -2682,7 +2687,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A81" s="3" t="s">
         <v>231</v>
       </c>
@@ -2697,10 +2702,10 @@
       </c>
       <c r="E81" s="2"/>
       <c r="F81" s="4" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A82" s="5" t="s">
         <v>232</v>
       </c>
@@ -2716,12 +2721,12 @@
         <v>226</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A85" s="9" t="s">
         <v>0</v>
       </c>
@@ -2741,9 +2746,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A86" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>206</v>
@@ -2756,12 +2761,12 @@
         <v>21</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A87" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>13</v>
@@ -2772,12 +2777,12 @@
       </c>
       <c r="E87" s="2"/>
       <c r="F87" s="4" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A88" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>206</v>
@@ -2788,15 +2793,15 @@
       </c>
       <c r="E88" s="2"/>
       <c r="F88" s="4" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A89" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C89" s="2">
         <v>0</v>
@@ -2806,15 +2811,15 @@
       </c>
       <c r="E89" s="2"/>
       <c r="F89" s="4" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A90" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B90" s="15" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" s="2" t="s">
@@ -2822,12 +2827,12 @@
       </c>
       <c r="E90" s="2"/>
       <c r="F90" s="4" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A91" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>16</v>
@@ -2838,15 +2843,15 @@
       </c>
       <c r="E91" s="2"/>
       <c r="F91" s="4" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A92" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C92" s="7" t="s">
         <v>20</v>
@@ -2856,7 +2861,7 @@
       </c>
       <c r="E92" s="7"/>
       <c r="F92" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -2867,19 +2872,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="4" max="4" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -2903,7 +2908,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>30</v>
       </c>
@@ -2927,7 +2932,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>32</v>
       </c>
@@ -2951,7 +2956,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -2975,7 +2980,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>36</v>
       </c>
@@ -2999,7 +3004,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>38</v>
       </c>
@@ -3023,7 +3028,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>40</v>
       </c>
@@ -3047,7 +3052,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>42</v>
       </c>
@@ -3071,7 +3076,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>44</v>
       </c>
@@ -3095,7 +3100,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>46</v>
       </c>
@@ -3119,7 +3124,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>48</v>
       </c>
@@ -3143,7 +3148,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>50</v>
       </c>
@@ -3167,7 +3172,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>52</v>
       </c>
@@ -3185,7 +3190,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>54</v>
       </c>
@@ -3203,7 +3208,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>56</v>
       </c>
@@ -3212,7 +3217,7 @@
       </c>
       <c r="D16" s="12"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>58</v>
       </c>
@@ -3221,7 +3226,7 @@
       </c>
       <c r="D17" s="12"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>60</v>
       </c>
@@ -3230,7 +3235,7 @@
       </c>
       <c r="D18" s="12"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>62</v>
       </c>
@@ -3239,7 +3244,7 @@
       </c>
       <c r="D19" s="12"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>64</v>
       </c>
